--- a/data/Subset1_WithDialogActs/Towers 5_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Towers 5_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1319,12 +1319,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1403,12 +1403,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1571,12 +1571,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1613,12 +1613,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1781,12 +1781,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1823,12 +1823,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1865,12 +1865,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -2495,12 +2495,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2751,12 +2751,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3213,12 +3213,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3297,12 +3297,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
